--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437F049-3B75-4C76-B002-67927883F351}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A117DAB-4A20-4AC7-BE29-A4166FF4BDB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21690" windowHeight="4230" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -137,12 +137,6 @@
     <t>#empty</t>
   </si>
   <si>
-    <t>controls&gt;Template</t>
-  </si>
-  <si>
-    <t>titles&gt;Template</t>
-  </si>
-  <si>
     <t>#fullNav</t>
   </si>
   <si>
@@ -251,12 +245,6 @@
     <t>popup</t>
   </si>
   <si>
-    <t>johnsons&gt;</t>
-  </si>
-  <si>
-    <t>hexoral&gt;</t>
-  </si>
-  <si>
     <t>Источник контента</t>
   </si>
   <si>
@@ -356,25 +344,109 @@
     <t>value</t>
   </si>
   <si>
-    <t>backgroundColor</t>
-  </si>
-  <si>
     <t>#000000</t>
   </si>
   <si>
-    <t>contentWidth</t>
-  </si>
-  <si>
-    <t>contentHeight</t>
-  </si>
-  <si>
-    <t>viewportWidth</t>
-  </si>
-  <si>
-    <t>viewportHeight</t>
-  </si>
-  <si>
     <t>menu</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>Lorem ipsum</t>
+  </si>
+  <si>
+    <t>ed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia consequuntur magni dolores eos qui ratione voluptatem sequi nesciunt. Neque porro quisquam est, qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit, sed quia non numquam eius modi tempora incidunt ut labore et dolore magnam aliquam quaerat voluptatem. Ut enim ad minima veniam, quis nostrum exercitationem ullam corporis suscipit laboriosam, nisi ut aliquid ex ea commodi consequatur? Quis autem vel eum iure reprehenderit qui in ea voluptate velit esse quam nihil molestiae consequatur, vel illum qui dolorem eum fugiat quo voluptas nulla pariatur?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perspiciatis unde </t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>offsetX</t>
+  </si>
+  <si>
+    <t>offsetY</t>
+  </si>
+  <si>
+    <t>nominalFontSize</t>
+  </si>
+  <si>
+    <t>maxWidth</t>
+  </si>
+  <si>
+    <t>maxHeight</t>
+  </si>
+  <si>
+    <t>minWidth</t>
+  </si>
+  <si>
+    <t>minHeight</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>globalBg</t>
+  </si>
+  <si>
+    <t>containerBg</t>
+  </si>
+  <si>
+    <t>#DDDDDD</t>
+  </si>
+  <si>
+    <t>slidesPath</t>
+  </si>
+  <si>
+    <t>templatePath</t>
+  </si>
+  <si>
+    <t>{slidesPath}johnsons&gt;</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral&gt;</t>
+  </si>
+  <si>
+    <t>presentation/slides/</t>
+  </si>
+  <si>
+    <t>presentation/template/</t>
+  </si>
+  <si>
+    <t>{templatePath}background</t>
+  </si>
+  <si>
+    <t>{templatePath}menu</t>
+  </si>
+  <si>
+    <t>{templatePath}controls&gt;Template</t>
+  </si>
+  <si>
+    <t>{templatePath}titles</t>
   </si>
 </sst>
 </file>
@@ -510,7 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -550,6 +622,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -856,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,16 +968,16 @@
         <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -918,61 +996,61 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>23</v>
@@ -980,10 +1058,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>24</v>
@@ -991,10 +1069,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>25</v>
@@ -1002,10 +1080,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>26</v>
@@ -1090,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1182,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>33</v>
@@ -1116,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>16</v>
@@ -1142,30 +1220,30 @@
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1173,19 +1251,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -1202,7 +1280,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1228,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>18</v>
@@ -1237,12 +1315,14 @@
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1253,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -1275,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1289,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -1303,10 +1383,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1317,7 +1397,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1339,131 +1419,177 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="16" max="16" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>61</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1474,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCF70F-6114-4B46-A39A-F84229472AC3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1489,50 +1615,98 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1280</v>
+        <v>127</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B4" s="8">
-        <v>960</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B5" s="8">
-        <v>1280</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="8">
         <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1543,31 +1717,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560EBD8E-A245-488A-9C11-9F9F721470B5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="16" max="16" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="21"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1575,29 +1772,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC0A1BD-4758-4764-BE1D-354A27BA823A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="28.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="8"/>
-    <col min="16" max="16" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="21"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1630,13 +1852,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,59 +1866,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1704,63 +1926,63 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A117DAB-4A20-4AC7-BE29-A4166FF4BDB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD040B-B1D5-47FA-A8F2-07F3F9B69253}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Johnsons Baby&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>swipeable</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>Подстановка кадра для перехода к заданному в шаблонах пути или пути с экземпляром</t>
   </si>
   <si>
-    <t>johnsonsPopup1</t>
-  </si>
-  <si>
     <t>Подстановки</t>
   </si>
   <si>
@@ -447,6 +441,15 @@
   </si>
   <si>
     <t>{templatePath}titles</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>{slidesPath}intro</t>
+  </si>
+  <si>
+    <t>{slidesPath}johnsonsPopup1</t>
   </si>
 </sst>
 </file>
@@ -934,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,7 +947,9 @@
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="10" style="8" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="21.85546875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="21.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="26.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="8" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" style="8" customWidth="1"/>
@@ -968,16 +973,16 @@
         <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -1019,16 +1024,16 @@
         <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1168,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1194,10 +1199,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>16</v>
@@ -1211,7 +1216,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>34</v>
@@ -1220,7 +1225,7 @@
         <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1228,7 +1233,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>35</v>
@@ -1237,10 +1242,10 @@
         <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>40</v>
@@ -1251,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -1260,10 +1265,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -1306,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>18</v>
@@ -1315,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -1333,10 +1338,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1346,19 +1348,13 @@
       <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1369,10 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1383,10 +1376,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1397,7 +1393,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1408,7 +1407,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>37</v>
@@ -1480,7 +1482,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -1494,10 +1496,10 @@
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1505,10 +1507,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1516,10 +1518,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1530,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1544,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1558,38 +1560,38 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1615,31 +1617,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1647,7 +1649,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="8">
         <v>728</v>
@@ -1655,7 +1657,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1663,7 +1665,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1671,7 +1673,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1679,7 +1681,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1687,7 +1689,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1695,18 +1697,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1736,32 +1738,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
@@ -1813,10 +1815,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1852,13 +1854,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,59 +1868,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1926,63 +1928,63 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AD040B-B1D5-47FA-A8F2-07F3F9B69253}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FBDDFC-91D5-484B-9984-304577E6D60C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -450,6 +450,21 @@
   </si>
   <si>
     <t>{slidesPath}johnsonsPopup1</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>bottom,left</t>
+  </si>
+  <si>
+    <t>top,left</t>
   </si>
 </sst>
 </file>
@@ -937,7 +952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1282,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1293,9 +1308,9 @@
     <col min="1" max="1" width="6.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
@@ -1309,7 +1324,7 @@
     <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
@@ -1328,9 +1343,14 @@
       <c r="F1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1360,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1371,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1384,8 +1404,14 @@
       <c r="D6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1398,8 +1424,14 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1411,6 +1443,12 @@
       </c>
       <c r="D8" s="8">
         <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1605,7 +1643,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1652,7 +1690,7 @@
         <v>122</v>
       </c>
       <c r="B5" s="8">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FBDDFC-91D5-484B-9984-304577E6D60C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA98675-9AAC-47D6-A1FB-B7536F6C5BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +74,6 @@
     <t>next</t>
   </si>
   <si>
-    <t>previous</t>
-  </si>
-  <si>
     <t>controls</t>
   </si>
   <si>
@@ -465,6 +462,12 @@
   </si>
   <si>
     <t>top,left</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>#red</t>
   </si>
 </sst>
 </file>
@@ -952,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -979,25 +982,25 @@
         <v>10</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -1013,100 +1016,103 @@
       <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1117,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1128,7 +1134,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1139,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1150,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1161,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1172,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>1</v>
@@ -1189,7 +1195,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1205,22 +1211,22 @@
         <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>9</v>
@@ -1231,39 +1237,39 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1271,19 +1277,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -1299,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1326,28 +1332,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1366,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1385,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1396,16 +1402,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="8">
         <v>100</v>
@@ -1416,16 +1422,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="8">
         <v>100</v>
@@ -1436,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="8">
         <v>100</v>
@@ -1489,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1503,24 +1509,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -1528,108 +1534,108 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8">
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1655,31 +1661,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1687,7 +1693,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1695,7 +1701,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1727,7 +1733,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1735,18 +1741,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1776,32 +1782,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1831,32 +1837,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1892,13 +1898,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,59 +1912,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1966,63 +1972,63 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA98675-9AAC-47D6-A1FB-B7536F6C5BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29025D-DC4E-43C2-B418-073822410E69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="layers" sheetId="8" r:id="rId3"/>
     <sheet name="menus" sheetId="10" r:id="rId4"/>
     <sheet name="settings" sheetId="6" r:id="rId5"/>
-    <sheet name="johnsonsPopup1" sheetId="11" r:id="rId6"/>
-    <sheet name="johnsonsInfo" sheetId="12" r:id="rId7"/>
-    <sheet name="&lt;Справочник&gt;" sheetId="5" r:id="rId8"/>
+    <sheet name="cycleBookInfo" sheetId="13" r:id="rId6"/>
+    <sheet name="johnsonsPopup1" sheetId="11" r:id="rId7"/>
+    <sheet name="johnsonsInfo" sheetId="12" r:id="rId8"/>
+    <sheet name="&lt;Справочник&gt;" sheetId="5" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
   <si>
     <t>id</t>
   </si>
@@ -74,9 +75,6 @@
     <t>next</t>
   </si>
   <si>
-    <t>controls</t>
-  </si>
-  <si>
     <t>background</t>
   </si>
   <si>
@@ -434,9 +432,6 @@
     <t>{templatePath}menu</t>
   </si>
   <si>
-    <t>{templatePath}controls&gt;Template</t>
-  </si>
-  <si>
     <t>{templatePath}titles</t>
   </si>
   <si>
@@ -468,6 +463,63 @@
   </si>
   <si>
     <t>#red</t>
+  </si>
+  <si>
+    <t>topmenu</t>
+  </si>
+  <si>
+    <t>{templatePath}topmenu</t>
+  </si>
+  <si>
+    <t>maintitle</t>
+  </si>
+  <si>
+    <t>{templatePath}maintitle</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>Деактивировать строку</t>
+  </si>
+  <si>
+    <t>столбец, в котором 1 означает - не использовать данную строку</t>
+  </si>
+  <si>
+    <t>CYCLE BOOK</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>с 1 января по 28 февраля</t>
+  </si>
+  <si>
+    <t>leftmenu</t>
+  </si>
+  <si>
+    <t>{templatePath}leftmenu&gt;Template</t>
+  </si>
+  <si>
+    <t>prevnav</t>
+  </si>
+  <si>
+    <t>nextnav</t>
+  </si>
+  <si>
+    <t>{templatePath}prevnav</t>
+  </si>
+  <si>
+    <t>{templatePath}nextnav</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>margin</t>
+  </si>
+  <si>
+    <t>l70</t>
   </si>
 </sst>
 </file>
@@ -603,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -648,6 +700,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,7 +1029,7 @@
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -982,25 +1037,25 @@
         <v>10</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -1008,8 +1063,11 @@
       <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -1017,105 +1075,105 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1123,10 +1181,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
@@ -1134,10 +1192,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
@@ -1145,10 +1203,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -1156,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
@@ -1167,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
@@ -1178,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>1</v>
@@ -1192,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1206,90 +1264,93 @@
     <col min="9" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -1303,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1317,143 +1378,239 @@
     <col min="4" max="4" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="7" width="9.7109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="8" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="8"/>
+    <col min="18" max="18" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="I6" s="8">
+        <v>70</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="H7" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="8">
+        <v>141</v>
+      </c>
+      <c r="I8" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="8">
+        <v>30</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="8">
+        <v>30</v>
+      </c>
+      <c r="I12" s="8">
         <v>100</v>
       </c>
     </row>
@@ -1495,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1509,24 +1666,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -1534,108 +1691,108 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8">
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1661,31 +1818,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1693,7 +1850,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1701,7 +1858,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1709,7 +1866,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1717,7 +1874,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1725,7 +1882,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1733,7 +1890,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1741,18 +1898,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1762,6 +1919,72 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07CFF63-8A61-4EC8-9286-C73858C2C756}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560EBD8E-A245-488A-9C11-9F9F721470B5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1782,32 +2005,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC0A1BD-4758-4764-BE1D-354A27BA823A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1837,32 +2060,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1871,12 +2094,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1898,13 +2121,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,59 +2135,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1972,70 +2195,77 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29025D-DC4E-43C2-B418-073822410E69}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D29BF-E290-4AE3-98E9-CD27FF3B4CBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -87,9 +87,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>&gt;Slide00</t>
-  </si>
-  <si>
     <t>&gt;Slide01</t>
   </si>
   <si>
@@ -111,21 +108,6 @@
     <t>&gt;Slide07</t>
   </si>
   <si>
-    <t>&gt;Slide08</t>
-  </si>
-  <si>
-    <t>&gt;Slide09</t>
-  </si>
-  <si>
-    <t>&gt;Slide10</t>
-  </si>
-  <si>
-    <t>&gt;Slide11</t>
-  </si>
-  <si>
-    <t>&gt;Slide12</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -231,9 +213,6 @@
     <t>popup2</t>
   </si>
   <si>
-    <t>&gt;Popup01</t>
-  </si>
-  <si>
     <t>popup</t>
   </si>
   <si>
@@ -441,9 +420,6 @@
     <t>{slidesPath}intro</t>
   </si>
   <si>
-    <t>{slidesPath}johnsonsPopup1</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
@@ -520,6 +496,9 @@
   </si>
   <si>
     <t>l70</t>
+  </si>
+  <si>
+    <t>&gt;</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +990,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1037,25 +1016,25 @@
         <v>10</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -1064,7 +1043,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1075,66 +1054,66 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>21</v>
@@ -1142,10 +1121,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>22</v>
@@ -1153,10 +1132,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>23</v>
@@ -1164,10 +1143,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>24</v>
@@ -1181,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1192,7 +1171,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1203,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1214,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1225,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1236,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>1</v>
@@ -1269,19 +1248,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>14</v>
@@ -1290,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1298,39 +1277,39 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1338,19 +1317,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>7</v>
@@ -1367,7 +1346,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>16</v>
@@ -1403,25 +1382,25 @@
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1432,7 +1411,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1440,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1448,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1459,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1470,16 +1449,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8">
         <v>70</v>
@@ -1493,16 +1472,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H7" s="8">
         <v>70</v>
@@ -1513,16 +1492,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I8" s="8">
         <v>70</v>
@@ -1536,10 +1515,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="I9" s="8">
         <v>70</v>
@@ -1550,16 +1529,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I10" s="8">
         <v>70</v>
@@ -1570,19 +1549,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8">
         <v>30</v>
@@ -1596,16 +1575,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H12" s="8">
         <v>30</v>
@@ -1652,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1666,24 +1645,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>7</v>
@@ -1691,108 +1670,108 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8">
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1818,31 +1797,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1850,7 +1829,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1858,7 +1837,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1866,7 +1845,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1874,7 +1853,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1882,7 +1861,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1890,7 +1869,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1898,18 +1877,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1939,29 +1918,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1969,13 +1948,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2005,32 +1984,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2060,32 +2039,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2121,13 +2100,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2135,59 +2114,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2195,76 +2174,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D29BF-E290-4AE3-98E9-CD27FF3B4CBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563A4B4-621A-4356-BAE7-DC088B861D3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>hexoral03</t>
   </si>
   <si>
-    <t>hexoral04</t>
-  </si>
-  <si>
     <t>hexoral05</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>detailing</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1013,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1051,116 +1051,116 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1168,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1179,10 +1179,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,32 +1190,32 @@
         <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>1</v>
@@ -1229,110 +1229,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="8" customWidth="1"/>
-    <col min="2" max="7" width="27" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="8" width="27" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1345,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,34 +1379,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1408,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1419,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1427,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1438,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1449,16 +1455,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="8">
         <v>70</v>
@@ -1472,16 +1478,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="8">
         <v>70</v>
@@ -1492,16 +1498,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8">
         <v>70</v>
@@ -1512,13 +1515,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8">
         <v>70</v>
@@ -1529,16 +1535,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="8">
         <v>70</v>
@@ -1549,19 +1555,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="8">
         <v>30</v>
@@ -1575,16 +1581,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H12" s="8">
         <v>30</v>
@@ -1631,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1645,133 +1651,133 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8">
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1797,31 +1803,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1837,7 +1843,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1853,7 +1859,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1869,7 +1875,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1877,18 +1883,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1918,29 +1924,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1948,13 +1954,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1984,32 +1990,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2039,32 +2045,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2100,13 +2106,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2114,59 +2120,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2174,76 +2180,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563A4B4-621A-4356-BAE7-DC088B861D3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0E1C4-DF46-4308-8273-BC355A914BFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
   <si>
     <t>id</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>detailing</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1349,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1380,7 @@
     <col min="20" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
@@ -1408,8 +1411,11 @@
       <c r="J1" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1420,15 +1426,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1473,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>10</v>
       </c>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0E1C4-DF46-4308-8273-BC355A914BFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DADFEF-5EA1-4476-B09A-7C2F61ECF139}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -426,9 +426,6 @@
     <t>height</t>
   </si>
   <si>
-    <t>bottom,left</t>
-  </si>
-  <si>
     <t>top,left</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>leftmenu</t>
   </si>
   <si>
-    <t>{templatePath}leftmenu&gt;Template</t>
-  </si>
-  <si>
     <t>prevnav</t>
   </si>
   <si>
@@ -502,6 +496,9 @@
   </si>
   <si>
     <t>master</t>
+  </si>
+  <si>
+    <t>{templatePath}leftmenu</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>12</v>
@@ -1046,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1057,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,10 +1082,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>89</v>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1254,7 +1251,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>14</v>
@@ -1269,13 +1266,13 @@
         <v>13</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1292,7 +1289,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>42</v>
@@ -1355,7 +1352,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1397,7 @@
         <v>113</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>129</v>
@@ -1409,10 +1406,10 @@
         <v>130</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1464,22 +1461,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="8">
+        <v>30</v>
       </c>
       <c r="I6" s="8">
-        <v>70</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1487,19 +1487,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="H7" s="8">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1507,16 +1510,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="8">
-        <v>70</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1524,18 +1530,18 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I9" s="8">
+        <v>131</v>
+      </c>
+      <c r="H9" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1544,16 +1550,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" s="8">
         <v>70</v>
@@ -1564,25 +1567,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="8">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I11" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1590,22 +1587,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="8">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I12" s="8">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1941,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,10 +1960,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2250,15 +2244,15 @@
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DADFEF-5EA1-4476-B09A-7C2F61ECF139}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B5C6D-BB0D-4CF2-8387-3D6988D74A7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -487,9 +487,6 @@
   </si>
   <si>
     <t>l70</t>
-  </si>
-  <si>
-    <t>&gt;</t>
   </si>
   <si>
     <t>detailing</t>
@@ -990,7 +987,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1081,12 +1078,6 @@
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="H4" s="8" t="s">
         <v>89</v>
       </c>
@@ -1198,7 +1189,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
@@ -1231,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1308,12 +1299,6 @@
       <c r="D3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1330,12 +1315,6 @@
       </c>
       <c r="D4" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>6</v>
@@ -1351,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1409,7 +1388,7 @@
         <v>138</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1533,7 +1512,7 @@
         <v>144</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B5C6D-BB0D-4CF2-8387-3D6988D74A7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CEFBF-C639-4954-B46D-D9ACD569A466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -108,12 +108,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>#empty</t>
-  </si>
-  <si>
-    <t>#fullNav</t>
-  </si>
-  <si>
     <t>#hexoral</t>
   </si>
   <si>
@@ -441,9 +435,6 @@
     <t>{templatePath}topmenu</t>
   </si>
   <si>
-    <t>maintitle</t>
-  </si>
-  <si>
     <t>{templatePath}maintitle</t>
   </si>
   <si>
@@ -496,6 +487,126 @@
   </si>
   <si>
     <t>{templatePath}leftmenu</t>
+  </si>
+  <si>
+    <t>hexoral04</t>
+  </si>
+  <si>
+    <t>detailing01</t>
+  </si>
+  <si>
+    <t>detailing02</t>
+  </si>
+  <si>
+    <t>detailing03</t>
+  </si>
+  <si>
+    <t>detailing04</t>
+  </si>
+  <si>
+    <t>detailing05</t>
+  </si>
+  <si>
+    <t>detailing06</t>
+  </si>
+  <si>
+    <t>detailing07</t>
+  </si>
+  <si>
+    <t>detailing08</t>
+  </si>
+  <si>
+    <t>detailing09</t>
+  </si>
+  <si>
+    <t>detailing10</t>
+  </si>
+  <si>
+    <t>detailing11</t>
+  </si>
+  <si>
+    <t>detailing12</t>
+  </si>
+  <si>
+    <t>detailing13</t>
+  </si>
+  <si>
+    <t>detailing14</t>
+  </si>
+  <si>
+    <t>detailing15</t>
+  </si>
+  <si>
+    <t>detailing16</t>
+  </si>
+  <si>
+    <t>detailing17</t>
+  </si>
+  <si>
+    <t>detailing18</t>
+  </si>
+  <si>
+    <t>detailingTemplate</t>
+  </si>
+  <si>
+    <t>&gt;1.jpg</t>
+  </si>
+  <si>
+    <t>&gt;2.jpg</t>
+  </si>
+  <si>
+    <t>&gt;3.jpg</t>
+  </si>
+  <si>
+    <t>&gt;4.jpg</t>
+  </si>
+  <si>
+    <t>&gt;5.jpg</t>
+  </si>
+  <si>
+    <t>&gt;6.jpg</t>
+  </si>
+  <si>
+    <t>&gt;7.jpg</t>
+  </si>
+  <si>
+    <t>&gt;8.jpg</t>
+  </si>
+  <si>
+    <t>&gt;9.jpg</t>
+  </si>
+  <si>
+    <t>&gt;10.jpg</t>
+  </si>
+  <si>
+    <t>&gt;11.jpg</t>
+  </si>
+  <si>
+    <t>&gt;12.jpg</t>
+  </si>
+  <si>
+    <t>&gt;13.jpg</t>
+  </si>
+  <si>
+    <t>&gt;14.jpg</t>
+  </si>
+  <si>
+    <t>&gt;15.jpg</t>
+  </si>
+  <si>
+    <t>&gt;16.jpg</t>
+  </si>
+  <si>
+    <t>&gt;17.jpg</t>
+  </si>
+  <si>
+    <t>&gt;18.jpg</t>
+  </si>
+  <si>
+    <t>&gt;19.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}detailing&gt;</t>
   </si>
 </sst>
 </file>
@@ -567,7 +678,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,6 +727,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -631,7 +748,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -681,6 +798,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -984,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,22 +1134,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>7</v>
@@ -1040,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1051,60 +1169,60 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>20</v>
@@ -1112,10 +1230,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>21</v>
@@ -1123,10 +1241,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>22</v>
@@ -1134,10 +1252,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>23</v>
@@ -1209,6 +1327,221 @@
         <v>22</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1220,21 +1553,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="8" customWidth="1"/>
-    <col min="2" max="8" width="27" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="6" width="27" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -1242,82 +1575,84 @@
         <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H1" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
@@ -1367,28 +1702,28 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1399,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1418,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1429,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1440,19 +1775,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="8">
         <v>30</v>
@@ -1466,16 +1801,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" s="8">
         <v>30</v>
@@ -1489,10 +1824,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1501,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1509,16 +1844,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="8">
         <v>70</v>
@@ -1529,13 +1864,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I10" s="8">
         <v>70</v>
@@ -1546,38 +1884,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="8">
         <v>70</v>
       </c>
     </row>
@@ -1619,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1633,24 +1951,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="8">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>6</v>
@@ -1658,108 +1976,108 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="8">
         <v>-1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="8">
         <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1785,31 +2103,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1817,7 +2135,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1825,7 +2143,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1833,7 +2151,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1841,7 +2159,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1849,7 +2167,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1857,7 +2175,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1865,18 +2183,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1906,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1917,10 +2235,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1928,7 +2246,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -1939,10 +2257,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1972,32 +2290,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2027,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2038,10 +2356,10 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
@@ -2049,10 +2367,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2065,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2088,13 +2406,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,59 +2420,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2162,76 +2480,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48CEFBF-C639-4954-B46D-D9ACD569A466}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFFE6F-6FC5-4096-9C83-2956081A254D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -39,18 +39,12 @@
     <t>intro</t>
   </si>
   <si>
-    <t>hexoral01</t>
-  </si>
-  <si>
     <t>hexoral02</t>
   </si>
   <si>
     <t>hexoral03</t>
   </si>
   <si>
-    <t>hexoral05</t>
-  </si>
-  <si>
     <t>hexoral</t>
   </si>
   <si>
@@ -84,33 +78,9 @@
     <t>source</t>
   </si>
   <si>
-    <t>&gt;Slide01</t>
-  </si>
-  <si>
-    <t>&gt;Slide02</t>
-  </si>
-  <si>
-    <t>&gt;Slide03</t>
-  </si>
-  <si>
-    <t>&gt;Slide04</t>
-  </si>
-  <si>
-    <t>&gt;Slide05</t>
-  </si>
-  <si>
-    <t>&gt;Slide06</t>
-  </si>
-  <si>
-    <t>&gt;Slide07</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
-    <t>#hexoral</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -120,36 +90,6 @@
     <t>contents</t>
   </si>
   <si>
-    <t>johnsons</t>
-  </si>
-  <si>
-    <t>johnsonsTemplate</t>
-  </si>
-  <si>
-    <t>#johnsons</t>
-  </si>
-  <si>
-    <t>johnsons01</t>
-  </si>
-  <si>
-    <t>johnsons02</t>
-  </si>
-  <si>
-    <t>johnsons03</t>
-  </si>
-  <si>
-    <t>johnsons04</t>
-  </si>
-  <si>
-    <t>johnsons05</t>
-  </si>
-  <si>
-    <t>johnsons06</t>
-  </si>
-  <si>
-    <t>Johnsons Baby&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
@@ -159,45 +99,15 @@
     <t>level</t>
   </si>
   <si>
-    <t>doctorMom</t>
-  </si>
-  <si>
     <t>tyzine</t>
   </si>
   <si>
-    <t>motilegas</t>
-  </si>
-  <si>
-    <t>nicorette</t>
-  </si>
-  <si>
-    <t>motilium</t>
-  </si>
-  <si>
-    <t>neutrogena</t>
-  </si>
-  <si>
     <t>Гексорал&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
   <si>
     <t>Доктор Мом&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>Тизин&lt;sup&gt;®&lt;/sup&gt; Пантенол</t>
-  </si>
-  <si>
-    <t>Мотилегаз&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Никоретте&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Мотилиум&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Neutrogena&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>popup1</t>
   </si>
   <si>
@@ -291,12 +201,6 @@
     <t>params</t>
   </si>
   <si>
-    <t>johnsonsPopup1,johnsonsInfo</t>
-  </si>
-  <si>
-    <t>{param1:"test1",param2:"test2"}</t>
-  </si>
-  <si>
     <t>property</t>
   </si>
   <si>
@@ -312,21 +216,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -375,21 +264,12 @@
     <t>containerBg</t>
   </si>
   <si>
-    <t>#DDDDDD</t>
-  </si>
-  <si>
     <t>slidesPath</t>
   </si>
   <si>
     <t>templatePath</t>
   </si>
   <si>
-    <t>{slidesPath}johnsons&gt;</t>
-  </si>
-  <si>
-    <t>{slidesPath}hexoral&gt;</t>
-  </si>
-  <si>
     <t>presentation/slides/</t>
   </si>
   <si>
@@ -402,9 +282,6 @@
     <t>{templatePath}menu</t>
   </si>
   <si>
-    <t>{templatePath}titles</t>
-  </si>
-  <si>
     <t>static</t>
   </si>
   <si>
@@ -426,9 +303,6 @@
     <t>prev</t>
   </si>
   <si>
-    <t>#red</t>
-  </si>
-  <si>
     <t>topmenu</t>
   </si>
   <si>
@@ -492,121 +366,187 @@
     <t>hexoral04</t>
   </si>
   <si>
-    <t>detailing01</t>
-  </si>
-  <si>
-    <t>detailing02</t>
-  </si>
-  <si>
-    <t>detailing03</t>
-  </si>
-  <si>
-    <t>detailing04</t>
-  </si>
-  <si>
-    <t>detailing05</t>
-  </si>
-  <si>
-    <t>detailing06</t>
-  </si>
-  <si>
-    <t>detailing07</t>
-  </si>
-  <si>
-    <t>detailing08</t>
-  </si>
-  <si>
-    <t>detailing09</t>
-  </si>
-  <si>
-    <t>detailing10</t>
-  </si>
-  <si>
-    <t>detailing11</t>
-  </si>
-  <si>
-    <t>detailing12</t>
-  </si>
-  <si>
-    <t>detailing13</t>
-  </si>
-  <si>
-    <t>detailing14</t>
-  </si>
-  <si>
-    <t>detailing15</t>
-  </si>
-  <si>
-    <t>detailing16</t>
-  </si>
-  <si>
-    <t>detailing17</t>
-  </si>
-  <si>
-    <t>detailing18</t>
-  </si>
-  <si>
     <t>detailingTemplate</t>
   </si>
   <si>
-    <t>&gt;1.jpg</t>
-  </si>
-  <si>
-    <t>&gt;2.jpg</t>
-  </si>
-  <si>
-    <t>&gt;3.jpg</t>
-  </si>
-  <si>
-    <t>&gt;4.jpg</t>
-  </si>
-  <si>
-    <t>&gt;5.jpg</t>
-  </si>
-  <si>
-    <t>&gt;6.jpg</t>
-  </si>
-  <si>
-    <t>&gt;7.jpg</t>
-  </si>
-  <si>
-    <t>&gt;8.jpg</t>
-  </si>
-  <si>
-    <t>&gt;9.jpg</t>
-  </si>
-  <si>
-    <t>&gt;10.jpg</t>
-  </si>
-  <si>
-    <t>&gt;11.jpg</t>
-  </si>
-  <si>
-    <t>&gt;12.jpg</t>
-  </si>
-  <si>
-    <t>&gt;13.jpg</t>
-  </si>
-  <si>
-    <t>&gt;14.jpg</t>
-  </si>
-  <si>
-    <t>&gt;15.jpg</t>
-  </si>
-  <si>
-    <t>&gt;16.jpg</t>
-  </si>
-  <si>
-    <t>&gt;17.jpg</t>
-  </si>
-  <si>
-    <t>&gt;18.jpg</t>
-  </si>
-  <si>
-    <t>&gt;19.jpg</t>
-  </si>
-  <si>
     <t>{slidesPath}detailing&gt;</t>
+  </si>
+  <si>
+    <t>Мультизима</t>
+  </si>
+  <si>
+    <t>Тизин&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Ринза&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>rinza</t>
+  </si>
+  <si>
+    <t>tyzineTemplate</t>
+  </si>
+  <si>
+    <t>tyzine02</t>
+  </si>
+  <si>
+    <t>tyzine03</t>
+  </si>
+  <si>
+    <t>tyzine04</t>
+  </si>
+  <si>
+    <t>tyzine05</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine&gt;001.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/005p</t>
+  </si>
+  <si>
+    <t>{templatePath}brandtitle</t>
+  </si>
+  <si>
+    <t>&gt;tyzine</t>
+  </si>
+  <si>
+    <t>startPosition</t>
+  </si>
+  <si>
+    <t>cacheSize</t>
+  </si>
+  <si>
+    <t>transitionDelay</t>
+  </si>
+  <si>
+    <t>transitionDuration</t>
+  </si>
+  <si>
+    <t>transitionEasing</t>
+  </si>
+  <si>
+    <t>ease-in-out</t>
+  </si>
+  <si>
+    <t>&gt;hexoral</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral&gt;001.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/003p</t>
+  </si>
+  <si>
+    <t>doctormom</t>
+  </si>
+  <si>
+    <t>doctormom02</t>
+  </si>
+  <si>
+    <t>doctormom03</t>
+  </si>
+  <si>
+    <t>doctormom04</t>
+  </si>
+  <si>
+    <t>doctormom05</t>
+  </si>
+  <si>
+    <t>doctormomTemplate</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom&gt;001.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/005</t>
+  </si>
+  <si>
+    <t>&gt;doctormom</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/003p</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/002p</t>
+  </si>
+  <si>
+    <t>rinza02</t>
+  </si>
+  <si>
+    <t>rinza03</t>
+  </si>
+  <si>
+    <t>rinza04</t>
+  </si>
+  <si>
+    <t>rinzaTemplate</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza&gt;001.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/002p</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/003p</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/004p</t>
+  </si>
+  <si>
+    <t>multiwinter</t>
+  </si>
+  <si>
+    <t>commonTemplate</t>
+  </si>
+  <si>
+    <t>{slidesPath}multiwinter&gt;002.jpg</t>
+  </si>
+  <si>
+    <t>{slidesPath}multiwinter/001</t>
+  </si>
+  <si>
+    <t>&gt;rinza</t>
   </si>
 </sst>
 </file>
@@ -616,7 +556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,8 +617,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +680,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -748,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -799,6 +758,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1102,19 +1067,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="8" customWidth="1"/>
     <col min="7" max="7" width="26" style="8" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="26.140625" style="8" bestFit="1" customWidth="1"/>
@@ -1128,37 +1094,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>130</v>
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1166,382 +1132,250 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>29</v>
+      <c r="A3" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>125</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
+      <c r="A9" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
+      <c r="A10" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
+      <c r="A11" s="26" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>139</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>3</v>
+      <c r="A12" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>4</v>
+      <c r="A13" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>152</v>
+      <c r="A14" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>21</v>
+        <v>149</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>5</v>
+      <c r="A15" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>155</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>156</v>
+        <v>161</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>158</v>
+        <v>163</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="14" t="s">
+      <c r="F22" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1553,106 +1387,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
     <col min="2" max="6" width="27" style="8" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="C5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>149</v>
+      <c r="G7" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1530,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,48 +1557,51 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>121</v>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1742,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -1753,20 +1620,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="B5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25">
         <v>1</v>
       </c>
     </row>
@@ -1775,19 +1645,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="H6" s="8">
         <v>30</v>
@@ -1801,16 +1671,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="H7" s="8">
         <v>30</v>
@@ -1824,10 +1694,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1836,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1844,16 +1714,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H9" s="8">
         <v>70</v>
@@ -1864,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="I10" s="8">
         <v>70</v>
@@ -1884,16 +1754,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="I11" s="8">
         <v>70</v>
@@ -1907,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1937,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1951,133 +1821,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="8">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2088,46 +1882,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCF70F-6114-4B46-A39A-F84229472AC3}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -2135,7 +1929,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -2143,7 +1937,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -2151,7 +1945,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -2159,7 +1953,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -2167,7 +1961,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2175,7 +1969,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -2183,18 +1977,58 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2224,29 +2058,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C3" s="22">
         <v>1</v>
@@ -2254,13 +2088,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2290,32 +2124,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2345,32 +2179,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2406,13 +2240,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2420,59 +2254,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2480,76 +2314,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AFFE6F-6FC5-4096-9C83-2956081A254D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06161C-0A6A-4A38-A6EF-EFE160FCDB40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
   <si>
     <t>id</t>
   </si>
@@ -39,12 +39,6 @@
     <t>intro</t>
   </si>
   <si>
-    <t>hexoral02</t>
-  </si>
-  <si>
-    <t>hexoral03</t>
-  </si>
-  <si>
     <t>hexoral</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
     <t>tyzine</t>
   </si>
   <si>
-    <t>Гексорал&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Доктор Мом&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>popup1</t>
   </si>
   <si>
@@ -327,12 +315,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>с 1 января по 28 февраля</t>
-  </si>
-  <si>
-    <t>leftmenu</t>
-  </si>
-  <si>
     <t>prevnav</t>
   </si>
   <si>
@@ -351,75 +333,24 @@
     <t>margin</t>
   </si>
   <si>
-    <t>l70</t>
-  </si>
-  <si>
     <t>detailing</t>
   </si>
   <si>
     <t>master</t>
   </si>
   <si>
-    <t>{templatePath}leftmenu</t>
-  </si>
-  <si>
-    <t>hexoral04</t>
-  </si>
-  <si>
     <t>detailingTemplate</t>
   </si>
   <si>
     <t>{slidesPath}detailing&gt;</t>
   </si>
   <si>
-    <t>Мультизима</t>
-  </si>
-  <si>
-    <t>Тизин&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Ринза&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
     <t>rinza</t>
   </si>
   <si>
     <t>tyzineTemplate</t>
   </si>
   <si>
-    <t>tyzine02</t>
-  </si>
-  <si>
-    <t>tyzine03</t>
-  </si>
-  <si>
-    <t>tyzine04</t>
-  </si>
-  <si>
-    <t>tyzine05</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine&gt;001.jpg</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/005p</t>
-  </si>
-  <si>
-    <t>{templatePath}brandtitle</t>
-  </si>
-  <si>
     <t>&gt;tyzine</t>
   </si>
   <si>
@@ -444,109 +375,373 @@
     <t>&gt;hexoral</t>
   </si>
   <si>
-    <t>{slidesPath}hexoral&gt;001.jpg</t>
-  </si>
-  <si>
-    <t>{slidesPath}hexoral/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}hexoral/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}hexoral/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}hexoral/003p</t>
-  </si>
-  <si>
     <t>doctormom</t>
   </si>
   <si>
-    <t>doctormom02</t>
-  </si>
-  <si>
-    <t>doctormom03</t>
-  </si>
-  <si>
-    <t>doctormom04</t>
-  </si>
-  <si>
-    <t>doctormom05</t>
-  </si>
-  <si>
     <t>doctormomTemplate</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom&gt;001.jpg</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/005</t>
-  </si>
-  <si>
     <t>&gt;doctormom</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/003p</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/002p</t>
-  </si>
-  <si>
-    <t>rinza02</t>
-  </si>
-  <si>
-    <t>rinza03</t>
-  </si>
-  <si>
-    <t>rinza04</t>
-  </si>
-  <si>
     <t>rinzaTemplate</t>
   </si>
   <si>
-    <t>{slidesPath}rinza&gt;001.jpg</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/002p</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/003p</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/004p</t>
-  </si>
-  <si>
-    <t>multiwinter</t>
-  </si>
-  <si>
     <t>commonTemplate</t>
   </si>
   <si>
-    <t>{slidesPath}multiwinter&gt;002.jpg</t>
-  </si>
-  <si>
-    <t>{slidesPath}multiwinter/001</t>
-  </si>
-  <si>
     <t>&gt;rinza</t>
+  </si>
+  <si>
+    <t>Академия+</t>
+  </si>
+  <si>
+    <t>academyPlus</t>
+  </si>
+  <si>
+    <t>Мотрин&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Микролакс&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Мотилегаз&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Никоретте&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>motrine</t>
+  </si>
+  <si>
+    <t>microlax</t>
+  </si>
+  <si>
+    <t>motilegas</t>
+  </si>
+  <si>
+    <t>nicorette</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/002</t>
+  </si>
+  <si>
+    <t>multibrand</t>
+  </si>
+  <si>
+    <t>{slidesPath}multibrand/001</t>
+  </si>
+  <si>
+    <t>motrineTemplate</t>
+  </si>
+  <si>
+    <t>&gt;motrine</t>
+  </si>
+  <si>
+    <t>microlaxTemplate</t>
+  </si>
+  <si>
+    <t>&gt;microlax</t>
+  </si>
+  <si>
+    <t>motilegasTemplate</t>
+  </si>
+  <si>
+    <t>&gt;motilegas</t>
+  </si>
+  <si>
+    <t>nicoretteTemplate</t>
+  </si>
+  <si>
+    <t>&gt;nicorette</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>с 1 ноября по 31 декабря</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/005p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/002p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/003p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/004p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}motrine/006p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/002p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/003p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/004p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/005p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/006p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/007p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/008p</t>
+  </si>
+  <si>
+    <t>{slidesPath}microlax/005pp</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/002p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/004p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/005p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/006p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/007p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/008p</t>
+  </si>
+  <si>
+    <t>{slidesPath}motilegas/005pp</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/002p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/002pp</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/003p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/004p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/005p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/006p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/007p</t>
+  </si>
+  <si>
+    <t>{slidesPath}nicorette/006pp</t>
+  </si>
+  <si>
+    <t>{slidesPath}multibrand/002</t>
+  </si>
+  <si>
+    <t>motrine2</t>
+  </si>
+  <si>
+    <t>motrine3</t>
+  </si>
+  <si>
+    <t>motrine4</t>
+  </si>
+  <si>
+    <t>motrine5</t>
+  </si>
+  <si>
+    <t>motrine6</t>
+  </si>
+  <si>
+    <t>microlax2</t>
+  </si>
+  <si>
+    <t>microlax3</t>
+  </si>
+  <si>
+    <t>microlax4</t>
+  </si>
+  <si>
+    <t>microlax5</t>
+  </si>
+  <si>
+    <t>microlax6</t>
+  </si>
+  <si>
+    <t>microlax7</t>
+  </si>
+  <si>
+    <t>microlax8</t>
+  </si>
+  <si>
+    <t>motilegas2</t>
+  </si>
+  <si>
+    <t>motilegas3</t>
+  </si>
+  <si>
+    <t>motilegas4</t>
+  </si>
+  <si>
+    <t>motilegas5</t>
+  </si>
+  <si>
+    <t>motilegas6</t>
+  </si>
+  <si>
+    <t>motilegas7</t>
+  </si>
+  <si>
+    <t>motilegas8</t>
+  </si>
+  <si>
+    <t>nicorette2</t>
+  </si>
+  <si>
+    <t>nicorette3</t>
+  </si>
+  <si>
+    <t>nicorette4</t>
+  </si>
+  <si>
+    <t>nicorette6</t>
+  </si>
+  <si>
+    <t>nicorette5</t>
+  </si>
+  <si>
+    <t>nicorette7</t>
+  </si>
+  <si>
+    <t>multibrand2</t>
+  </si>
+  <si>
+    <t>academyPlus3</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>l0,t-320</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>{theme:"dark"}</t>
+  </si>
+  <si>
+    <t>exitpopup</t>
+  </si>
+  <si>
+    <t>{templatePath}exitpopup</t>
+  </si>
+  <si>
+    <t>{theme:"light", prev:"disabled",home:"disabled"}</t>
+  </si>
+  <si>
+    <t>academyPlus02</t>
   </si>
 </sst>
 </file>
@@ -556,7 +751,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,8 +819,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +893,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -707,7 +914,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -764,6 +971,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1067,315 +1279,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="26" style="8" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="25.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="26" style="8" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>116</v>
+      <c r="J17" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>211</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>156</v>
+      <c r="D18" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1387,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1403,120 +1991,164 @@
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1557,37 +2189,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1595,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J2" s="25">
         <v>1</v>
@@ -1609,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -1620,23 +2252,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
+    <row r="5" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30">
         <v>1</v>
       </c>
     </row>
@@ -1645,25 +2274,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="H6" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I6" s="8">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1671,22 +2297,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H7" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I7" s="8">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1694,19 +2320,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>88</v>
+      <c r="G8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1714,19 +2340,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
       <c r="F9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="8">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1734,39 +2360,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="E10" s="8">
         <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="8">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1807,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -1821,57 +2424,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +2488,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1897,31 +2500,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -1929,7 +2532,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -1937,7 +2540,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -1945,7 +2548,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -1953,7 +2556,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1961,7 +2564,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -1969,7 +2572,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -1977,23 +2580,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B13" s="8">
         <v>0</v>
@@ -2001,7 +2604,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
@@ -2009,7 +2612,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B15" s="21">
         <v>0</v>
@@ -2017,7 +2620,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B16" s="8">
         <v>0.7</v>
@@ -2025,10 +2628,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +2645,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2058,48 +2661,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="22">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2124,32 +2730,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2179,32 +2785,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2217,8 +2823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2240,13 +2846,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2254,59 +2860,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2314,76 +2920,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06161C-0A6A-4A38-A6EF-EFE160FCDB40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEC8D9-E8FE-498D-A2EA-23B32C4B266C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="223">
   <si>
     <t>id</t>
   </si>
@@ -39,9 +39,6 @@
     <t>intro</t>
   </si>
   <si>
-    <t>hexoral</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -54,18 +51,12 @@
     <t>introTemplate</t>
   </si>
   <si>
-    <t>hexoralTemplate</t>
-  </si>
-  <si>
     <t>next</t>
   </si>
   <si>
     <t>background</t>
   </si>
   <si>
-    <t>titles</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -87,15 +78,9 @@
     <t>data</t>
   </si>
   <si>
-    <t>service</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
-    <t>tyzine</t>
-  </si>
-  <si>
     <t>popup1</t>
   </si>
   <si>
@@ -297,9 +282,6 @@
     <t>{templatePath}topmenu</t>
   </si>
   <si>
-    <t>{templatePath}maintitle</t>
-  </si>
-  <si>
     <t>disable</t>
   </si>
   <si>
@@ -333,27 +315,9 @@
     <t>margin</t>
   </si>
   <si>
-    <t>detailing</t>
-  </si>
-  <si>
     <t>master</t>
   </si>
   <si>
-    <t>detailingTemplate</t>
-  </si>
-  <si>
-    <t>{slidesPath}detailing&gt;</t>
-  </si>
-  <si>
-    <t>rinza</t>
-  </si>
-  <si>
-    <t>tyzineTemplate</t>
-  </si>
-  <si>
-    <t>&gt;tyzine</t>
-  </si>
-  <si>
     <t>startPosition</t>
   </si>
   <si>
@@ -372,27 +336,9 @@
     <t>ease-in-out</t>
   </si>
   <si>
-    <t>&gt;hexoral</t>
-  </si>
-  <si>
-    <t>doctormom</t>
-  </si>
-  <si>
-    <t>doctormomTemplate</t>
-  </si>
-  <si>
-    <t>&gt;doctormom</t>
-  </si>
-  <si>
-    <t>rinzaTemplate</t>
-  </si>
-  <si>
     <t>commonTemplate</t>
   </si>
   <si>
-    <t>&gt;rinza</t>
-  </si>
-  <si>
     <t>Академия+</t>
   </si>
   <si>
@@ -429,36 +375,6 @@
     <t>{slidesPath}academyPlus/002</t>
   </si>
   <si>
-    <t>multibrand</t>
-  </si>
-  <si>
-    <t>{slidesPath}multibrand/001</t>
-  </si>
-  <si>
-    <t>motrineTemplate</t>
-  </si>
-  <si>
-    <t>&gt;motrine</t>
-  </si>
-  <si>
-    <t>microlaxTemplate</t>
-  </si>
-  <si>
-    <t>&gt;microlax</t>
-  </si>
-  <si>
-    <t>motilegasTemplate</t>
-  </si>
-  <si>
-    <t>&gt;motilegas</t>
-  </si>
-  <si>
-    <t>nicoretteTemplate</t>
-  </si>
-  <si>
-    <t>&gt;nicorette</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -480,9 +396,6 @@
     <t>{slidesPath}motrine/005p</t>
   </si>
   <si>
-    <t>{slidesPath}motrine/001</t>
-  </si>
-  <si>
     <t>{slidesPath}motrine/002p</t>
   </si>
   <si>
@@ -639,6 +552,9 @@
     <t>{slidesPath}multibrand/002</t>
   </si>
   <si>
+    <t>academyPlus2</t>
+  </si>
+  <si>
     <t>motrine2</t>
   </si>
   <si>
@@ -738,10 +654,52 @@
     <t>{templatePath}exitpopup</t>
   </si>
   <si>
-    <t>{theme:"light", prev:"disabled",home:"disabled"}</t>
-  </si>
-  <si>
-    <t>academyPlus02</t>
+    <t>popup3</t>
+  </si>
+  <si>
+    <t>popup4</t>
+  </si>
+  <si>
+    <t>popup5</t>
+  </si>
+  <si>
+    <t>academyPlus4</t>
+  </si>
+  <si>
+    <t>academyPlus5</t>
+  </si>
+  <si>
+    <t>academyPlus6</t>
+  </si>
+  <si>
+    <t>academyPlus7</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}academyPlus/007</t>
+  </si>
+  <si>
+    <t>{theme:"academy", prev:"disabled",home:"disabled"}</t>
+  </si>
+  <si>
+    <t>{theme:"academy"}</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/001</t>
   </si>
 </sst>
 </file>
@@ -914,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -972,9 +930,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1307,663 +1262,697 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="N1" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
+      <c r="A3" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>1</v>
+        <v>214</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>132</v>
+      <c r="A6" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>1</v>
+        <v>216</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>126</v>
+      <c r="A7" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>132</v>
+        <v>217</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>202</v>
+      <c r="A8" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>127</v>
+        <v>218</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>151</v>
+        <v>222</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>127</v>
+      <c r="A13" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>202</v>
+        <v>119</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>207</v>
+      <c r="A14" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>165</v>
+        <v>134</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="J18" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>168</v>
+        <v>137</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>128</v>
+      <c r="A21" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>207</v>
+        <v>132</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>214</v>
+      <c r="A22" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>180</v>
+        <v>150</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>183</v>
+        <v>152</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>129</v>
+      <c r="A29" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>214</v>
+        <v>148</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>221</v>
+      <c r="A30" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>195</v>
+        <v>157</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>186</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="B36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="14" t="s">
+      <c r="B39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1975,180 +1964,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
-    <col min="2" max="6" width="27" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="5" width="27" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2159,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2189,37 +2061,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2227,10 +2099,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J2" s="25">
         <v>1</v>
@@ -2241,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -2252,20 +2124,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="30">
+      <c r="B5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29">
         <v>1</v>
       </c>
     </row>
@@ -2273,86 +2147,50 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29">
         <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="8">
-        <v>60</v>
-      </c>
-      <c r="I6" s="8">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29">
         <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="8">
-        <v>60</v>
-      </c>
-      <c r="I7" s="8">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="29">
         <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2360,15 +2198,101 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="8">
+        <v>60</v>
+      </c>
+      <c r="I10" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="8">
+        <v>60</v>
+      </c>
+      <c r="I11" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I12" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2410,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -2424,57 +2348,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2500,31 +2424,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -2532,7 +2456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8">
         <v>720</v>
@@ -2540,7 +2464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -2548,7 +2472,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -2556,7 +2480,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -2564,7 +2488,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2572,7 +2496,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -2580,23 +2504,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B13" s="8">
         <v>0</v>
@@ -2604,7 +2528,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
@@ -2612,7 +2536,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B15" s="21">
         <v>0</v>
@@ -2620,7 +2544,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B16" s="8">
         <v>0.7</v>
@@ -2628,10 +2552,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2661,43 +2585,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2730,32 +2654,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2785,32 +2709,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2846,13 +2770,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2860,59 +2784,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2920,76 +2844,76 @@
     </row>
     <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEC8D9-E8FE-498D-A2EA-23B32C4B266C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44D2AB-D449-4F45-BCDB-6265A86D5E86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="229">
   <si>
     <t>id</t>
   </si>
@@ -372,9 +372,6 @@
     <t>{slidesPath}academyPlus/001</t>
   </si>
   <si>
-    <t>{slidesPath}academyPlus/002</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>{slidesPath}multibrand/002</t>
   </si>
   <si>
-    <t>academyPlus2</t>
-  </si>
-  <si>
     <t>motrine2</t>
   </si>
   <si>
@@ -639,9 +633,6 @@
     <t>extra</t>
   </si>
   <si>
-    <t>l0,t-320</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -663,33 +654,6 @@
     <t>popup5</t>
   </si>
   <si>
-    <t>academyPlus4</t>
-  </si>
-  <si>
-    <t>academyPlus5</t>
-  </si>
-  <si>
-    <t>academyPlus6</t>
-  </si>
-  <si>
-    <t>academyPlus7</t>
-  </si>
-  <si>
-    <t>{slidesPath}academyPlus/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}academyPlus/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}academyPlus/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}academyPlus/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}academyPlus/007</t>
-  </si>
-  <si>
     <t>{theme:"academy", prev:"disabled",home:"disabled"}</t>
   </si>
   <si>
@@ -700,6 +664,60 @@
   </si>
   <si>
     <t>{slidesPath}virus/001</t>
+  </si>
+  <si>
+    <t>Academy Plus</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/007</t>
+  </si>
+  <si>
+    <t>l0,t-600</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/001p</t>
+  </si>
+  <si>
+    <t>academy</t>
+  </si>
+  <si>
+    <t>academy2</t>
+  </si>
+  <si>
+    <t>academy3</t>
+  </si>
+  <si>
+    <t>academy4</t>
+  </si>
+  <si>
+    <t>academy5</t>
+  </si>
+  <si>
+    <t>academy6</t>
+  </si>
+  <si>
+    <t>academy7</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/5zASR1k4NT",target:"_blank"}}</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1245,19 +1263,20 @@
     <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="26" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="26" style="8" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1271,267 +1290,294 @@
         <v>16</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="L3" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="K4" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="J5" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="K6" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="J7" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L7" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="K8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="L8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="B12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>109</v>
       </c>
@@ -1539,141 +1585,141 @@
         <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="D16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="B21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N22" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>110</v>
       </c>
@@ -1681,138 +1727,138 @@
         <v>101</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
+      <c r="D24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="B26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="N26" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="B27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="B28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="B29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N30" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>111</v>
       </c>
@@ -1820,131 +1866,131 @@
         <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="D32" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="B34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="B36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="B38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="J38" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>101</v>
@@ -1952,7 +1998,7 @@
       <c r="C39" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="K39" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1964,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2023,6 +2069,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2034,7 +2088,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2124,7 +2178,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -2161,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -2174,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -2187,7 +2241,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
@@ -2210,10 +2264,10 @@
         <v>76</v>
       </c>
       <c r="H10" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I10" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2233,10 +2287,10 @@
         <v>92</v>
       </c>
       <c r="H11" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I11" s="8">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2253,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="I12" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2284,10 +2338,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -2412,7 +2466,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2505,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="8">
-        <v>1280</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,7 +2513,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="8">
-        <v>720</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2521,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="8">
-        <v>1280</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2475,7 +2529,7 @@
         <v>62</v>
       </c>
       <c r="B7" s="8">
-        <v>960</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2610,7 +2664,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2621,7 +2675,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F44D2AB-D449-4F45-BCDB-6265A86D5E86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC07CEC-E5E0-4AC0-8E5B-7D1D1E4A5962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="275">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>intro</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -369,267 +366,12 @@
     <t>nicorette</t>
   </si>
   <si>
-    <t>{slidesPath}academyPlus/001</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>с 1 ноября по 31 декабря</t>
   </si>
   <si>
-    <t>{slidesPath}motrine/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/005p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/002p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/003p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/004p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}motrine/006p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/001</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/007</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/008</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/002p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/003p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/004p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/005p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/006p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/007p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/008p</t>
-  </si>
-  <si>
-    <t>{slidesPath}microlax/005pp</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/001</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/007</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/008</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/002p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/004p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/005p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/006p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/007p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/008p</t>
-  </si>
-  <si>
-    <t>{slidesPath}motilegas/005pp</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/001</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/007</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/002p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/002pp</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/003p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/004p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/005p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/006p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/007p</t>
-  </si>
-  <si>
-    <t>{slidesPath}nicorette/006pp</t>
-  </si>
-  <si>
-    <t>{slidesPath}multibrand/002</t>
-  </si>
-  <si>
-    <t>motrine2</t>
-  </si>
-  <si>
-    <t>motrine3</t>
-  </si>
-  <si>
-    <t>motrine4</t>
-  </si>
-  <si>
-    <t>motrine5</t>
-  </si>
-  <si>
-    <t>motrine6</t>
-  </si>
-  <si>
-    <t>microlax2</t>
-  </si>
-  <si>
-    <t>microlax3</t>
-  </si>
-  <si>
-    <t>microlax4</t>
-  </si>
-  <si>
-    <t>microlax5</t>
-  </si>
-  <si>
-    <t>microlax6</t>
-  </si>
-  <si>
-    <t>microlax7</t>
-  </si>
-  <si>
-    <t>microlax8</t>
-  </si>
-  <si>
-    <t>motilegas2</t>
-  </si>
-  <si>
-    <t>motilegas3</t>
-  </si>
-  <si>
-    <t>motilegas4</t>
-  </si>
-  <si>
-    <t>motilegas5</t>
-  </si>
-  <si>
-    <t>motilegas6</t>
-  </si>
-  <si>
-    <t>motilegas7</t>
-  </si>
-  <si>
-    <t>motilegas8</t>
-  </si>
-  <si>
-    <t>nicorette2</t>
-  </si>
-  <si>
-    <t>nicorette3</t>
-  </si>
-  <si>
-    <t>nicorette4</t>
-  </si>
-  <si>
-    <t>nicorette6</t>
-  </si>
-  <si>
-    <t>nicorette5</t>
-  </si>
-  <si>
-    <t>nicorette7</t>
-  </si>
-  <si>
-    <t>multibrand2</t>
-  </si>
-  <si>
-    <t>academyPlus3</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -657,9 +399,6 @@
     <t>{theme:"academy", prev:"disabled",home:"disabled"}</t>
   </si>
   <si>
-    <t>{theme:"academy"}</t>
-  </si>
-  <si>
     <t>virus</t>
   </si>
   <si>
@@ -718,6 +457,405 @@
   </si>
   <si>
     <t>{theme:"academy",link1:{url:"https://forms.office.com/r/5zASR1k4NT",target:"_blank"}}</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/002p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/002p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003p3</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003p4</t>
+  </si>
+  <si>
+    <t>{slidesPath}academy/003p5</t>
+  </si>
+  <si>
+    <t>virus2</t>
+  </si>
+  <si>
+    <t>virus3</t>
+  </si>
+  <si>
+    <t>virus4</t>
+  </si>
+  <si>
+    <t>virus5</t>
+  </si>
+  <si>
+    <t>virus6</t>
+  </si>
+  <si>
+    <t>virus7</t>
+  </si>
+  <si>
+    <t>rinza</t>
+  </si>
+  <si>
+    <t>rinza2</t>
+  </si>
+  <si>
+    <t>rinza3</t>
+  </si>
+  <si>
+    <t>rinza4</t>
+  </si>
+  <si>
+    <t>rinza5</t>
+  </si>
+  <si>
+    <t>rinza6</t>
+  </si>
+  <si>
+    <t>rinza7</t>
+  </si>
+  <si>
+    <t>rinza8</t>
+  </si>
+  <si>
+    <t>rinza9</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}virus/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/009</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/001p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/001p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/001p3</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/002p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/003p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/004p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/004p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/005p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/005p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/006p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/006p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/007p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/008p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}rinza/009p1</t>
+  </si>
+  <si>
+    <t>doctormom</t>
+  </si>
+  <si>
+    <t>doctormom2</t>
+  </si>
+  <si>
+    <t>doctormom3</t>
+  </si>
+  <si>
+    <t>doctormom4</t>
+  </si>
+  <si>
+    <t>doctormom5</t>
+  </si>
+  <si>
+    <t>doctormom6</t>
+  </si>
+  <si>
+    <t>doctormom7</t>
+  </si>
+  <si>
+    <t>doctormom8</t>
+  </si>
+  <si>
+    <t>doctormom9</t>
+  </si>
+  <si>
+    <t>doctormom10</t>
+  </si>
+  <si>
+    <t>doctormom11</t>
+  </si>
+  <si>
+    <t>doctormom12</t>
+  </si>
+  <si>
+    <t>doctormom13</t>
+  </si>
+  <si>
+    <t>doctormom14</t>
+  </si>
+  <si>
+    <t>doctormom15</t>
+  </si>
+  <si>
+    <t>doctormom16</t>
+  </si>
+  <si>
+    <t>doctormom17</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/009</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/010</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/011</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/012</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/013</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/014</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/015</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/016</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/017</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/001p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/002p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/003p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/004p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/005p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/006p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/007p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/008p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/009p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/010p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/011p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/013p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/014p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/015p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/016p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/017p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/001p2</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/001p3</t>
+  </si>
+  <si>
+    <t>{slidesPath}doctormom/001p4</t>
+  </si>
+  <si>
+    <t>tyzine</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/009</t>
+  </si>
+  <si>
+    <t>tyzine2</t>
+  </si>
+  <si>
+    <t>tyzine3</t>
+  </si>
+  <si>
+    <t>tyzine4</t>
+  </si>
+  <si>
+    <t>tyzine5</t>
+  </si>
+  <si>
+    <t>tyzine6</t>
+  </si>
+  <si>
+    <t>tyzine7</t>
+  </si>
+  <si>
+    <t>tyzine8</t>
+  </si>
+  <si>
+    <t>tyzine9</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/002p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/005p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/007p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}tyzine/009p1</t>
+  </si>
+  <si>
+    <t>{theme:"dark", next:"disabled"}</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Rinza</t>
+  </si>
+  <si>
+    <t>Doctormom</t>
+  </si>
+  <si>
+    <t>Tyzine</t>
+  </si>
+  <si>
+    <t>{theme:"dark",home:"disabled"}</t>
+  </si>
+  <si>
+    <t>{theme:"dark", next:"disabled",home:"disabled"}</t>
   </si>
 </sst>
 </file>
@@ -727,7 +865,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,13 +921,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -802,7 +933,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,12 +961,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,12 +994,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -890,7 +1009,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -921,14 +1040,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,15 +1058,14 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1252,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,741 +1382,1070 @@
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.85546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="26" style="8" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="8" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="8"/>
+    <col min="9" max="9" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="8" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="B36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="B37" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="B38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="B41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>1</v>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2010,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2026,55 +2472,87 @@
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>7</v>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>211</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2566,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2115,50 +2593,50 @@
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="25">
+      <c r="B2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2167,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="8">
         <v>1</v>
@@ -2178,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -2188,12 +2666,12 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29">
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2201,12 +2679,12 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2214,12 +2692,12 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29">
+      <c r="B7" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2227,23 +2705,23 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29">
+      <c r="B8" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="B9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="27">
         <v>1</v>
       </c>
     </row>
@@ -2252,16 +2730,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="8">
         <v>100</v>
@@ -2275,16 +2753,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="8">
         <v>100</v>
@@ -2298,16 +2776,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="I12" s="8">
         <v>102</v>
@@ -2318,10 +2796,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -2330,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2338,10 +2816,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -2388,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -2402,57 +2880,57 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2478,31 +2956,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="8">
         <v>2160</v>
@@ -2510,7 +2988,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="8">
         <v>1350</v>
@@ -2518,7 +2996,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8">
         <v>2160</v>
@@ -2526,7 +3004,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>1620</v>
@@ -2534,7 +3012,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -2542,7 +3020,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -2550,7 +3028,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -2558,23 +3036,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="8">
         <v>0</v>
@@ -2582,7 +3060,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
@@ -2590,15 +3068,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="21">
+        <v>96</v>
+      </c>
+      <c r="B15" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="8">
         <v>0.7</v>
@@ -2606,10 +3084,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2628,54 +3106,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>114</v>
+      <c r="C4" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2697,43 +3175,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>54</v>
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2752,43 +3230,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>56</v>
+      <c r="C2" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>55</v>
+      <c r="A3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2824,150 +3302,150 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>20</v>
+      <c r="A7" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC07CEC-E5E0-4AC0-8E5B-7D1D1E4A5962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31485AEF-7F9F-4CC0-91DF-D5CB719A1962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -336,36 +336,9 @@
     <t>commonTemplate</t>
   </si>
   <si>
-    <t>Академия+</t>
-  </si>
-  <si>
     <t>academyPlus</t>
   </si>
   <si>
-    <t>Мотрин&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Микролакс&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Мотилегаз&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>Никоретте&lt;sup&gt;®&lt;/sup&gt;</t>
-  </si>
-  <si>
-    <t>motrine</t>
-  </si>
-  <si>
-    <t>microlax</t>
-  </si>
-  <si>
-    <t>motilegas</t>
-  </si>
-  <si>
-    <t>nicorette</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -639,9 +612,6 @@
     <t>doctormom9</t>
   </si>
   <si>
-    <t>doctormom10</t>
-  </si>
-  <si>
     <t>doctormom11</t>
   </si>
   <si>
@@ -651,9 +621,6 @@
     <t>doctormom13</t>
   </si>
   <si>
-    <t>doctormom14</t>
-  </si>
-  <si>
     <t>doctormom15</t>
   </si>
   <si>
@@ -690,9 +657,6 @@
     <t>{slidesPath}doctormom/009</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/010</t>
-  </si>
-  <si>
     <t>{slidesPath}doctormom/011</t>
   </si>
   <si>
@@ -702,9 +666,6 @@
     <t>{slidesPath}doctormom/013</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/014</t>
-  </si>
-  <si>
     <t>{slidesPath}doctormom/015</t>
   </si>
   <si>
@@ -741,18 +702,12 @@
     <t>{slidesPath}doctormom/009p1</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/010p1</t>
-  </si>
-  <si>
     <t>{slidesPath}doctormom/011p1</t>
   </si>
   <si>
     <t>{slidesPath}doctormom/013p1</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/014p1</t>
-  </si>
-  <si>
     <t>{slidesPath}doctormom/015p1</t>
   </si>
   <si>
@@ -795,9 +750,6 @@
     <t>{slidesPath}tyzine/007</t>
   </si>
   <si>
-    <t>{slidesPath}tyzine/008</t>
-  </si>
-  <si>
     <t>{slidesPath}tyzine/009</t>
   </si>
   <si>
@@ -819,9 +771,6 @@
     <t>tyzine7</t>
   </si>
   <si>
-    <t>tyzine8</t>
-  </si>
-  <si>
     <t>tyzine9</t>
   </si>
   <si>
@@ -837,9 +786,6 @@
     <t>{slidesPath}tyzine/009p1</t>
   </si>
   <si>
-    <t>{theme:"dark", next:"disabled"}</t>
-  </si>
-  <si>
     <t>Virus</t>
   </si>
   <si>
@@ -856,6 +802,21 @@
   </si>
   <si>
     <t>{theme:"dark", next:"disabled",home:"disabled"}</t>
+  </si>
+  <si>
+    <t>JNJ Университеты</t>
+  </si>
+  <si>
+    <t>Развитие симптоматики</t>
+  </si>
+  <si>
+    <t>Ринза&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Доктор Мом&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>Тизин&lt;sup&gt;®&lt;/sup&gt; Пантенол</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1408,13 +1369,13 @@
         <v>16</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>79</v>
@@ -1423,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>45</v>
@@ -1443,1009 +1404,1093 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="I3" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K7" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>246</v>
+        <v>215</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>232</v>
+        <v>219</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>234</v>
+        <v>221</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>237</v>
+        <v>209</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>239</v>
+        <v>226</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="K39" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="K40" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>209</v>
-      </c>
       <c r="B41" s="8" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>193</v>
+        <v>247</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>193</v>
+        <v>234</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>274</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>249</v>
+        <v>236</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>265</v>
+        <v>249</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>252</v>
+        <v>239</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>268</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2517,42 +2562,42 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -2693,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2706,7 +2751,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2719,7 +2764,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E9" s="27">
         <v>1</v>
@@ -2785,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I12" s="8">
         <v>102</v>
@@ -2816,10 +2861,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -2839,7 +2884,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2883,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>101</v>
+        <v>257</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2894,10 +2939,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,10 +2950,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2916,10 +2961,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>109</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2927,10 +2972,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3187,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,7 +3198,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31485AEF-7F9F-4CC0-91DF-D5CB719A1962}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435D9DA-73DB-40DB-8651-EF7FF9F07EF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCF70F-6114-4B46-A39A-F84229472AC3}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3108,7 @@
         <v>95</v>
       </c>
       <c r="B14" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435D9DA-73DB-40DB-8651-EF7FF9F07EF7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E625963-6E8B-45AA-A255-FF611C1B81C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,10 @@
     <sheet name="layers" sheetId="8" r:id="rId3"/>
     <sheet name="menus" sheetId="10" r:id="rId4"/>
     <sheet name="settings" sheetId="6" r:id="rId5"/>
-    <sheet name="cycleBookInfo" sheetId="13" r:id="rId6"/>
-    <sheet name="johnsonsPopup1" sheetId="11" r:id="rId7"/>
-    <sheet name="johnsonsInfo" sheetId="12" r:id="rId8"/>
-    <sheet name="&lt;Справочник&gt;" sheetId="5" r:id="rId9"/>
+    <sheet name="&lt;Справочник&gt;" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -84,9 +81,6 @@
     <t>popup2</t>
   </si>
   <si>
-    <t>popup</t>
-  </si>
-  <si>
     <t>Источник контента</t>
   </si>
   <si>
@@ -186,21 +180,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
-  </si>
-  <si>
-    <t>Lorem ipsum</t>
-  </si>
-  <si>
-    <t>ed ut perspiciatis unde omnis iste natus error sit voluptatem accusantium doloremque laudantium, totam rem aperiam, eaque ipsa quae ab illo inventore veritatis et quasi architecto beatae vitae dicta sunt explicabo. Nemo enim ipsam voluptatem quia voluptas sit aspernatur aut odit aut fugit, sed quia consequuntur magni dolores eos qui ratione voluptatem sequi nesciunt. Neque porro quisquam est, qui dolorem ipsum quia dolor sit amet, consectetur, adipisci velit, sed quia non numquam eius modi tempora incidunt ut labore et dolore magnam aliquam quaerat voluptatem. Ut enim ad minima veniam, quis nostrum exercitationem ullam corporis suscipit laboriosam, nisi ut aliquid ex ea commodi consequatur? Quis autem vel eum iure reprehenderit qui in ea voluptate velit esse quam nihil molestiae consequatur, vel illum qui dolorem eum fugiat quo voluptas nulla pariatur?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perspiciatis unde </t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
@@ -288,12 +267,6 @@
     <t>столбец, в котором 1 означает - не использовать данную строку</t>
   </si>
   <si>
-    <t>CYCLE BOOK</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>prevnav</t>
   </si>
   <si>
@@ -339,12 +312,6 @@
     <t>academyPlus</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>с 1 ноября по 31 декабря</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -360,15 +327,6 @@
     <t>{templatePath}exitpopup</t>
   </si>
   <si>
-    <t>popup3</t>
-  </si>
-  <si>
-    <t>popup4</t>
-  </si>
-  <si>
-    <t>popup5</t>
-  </si>
-  <si>
     <t>{theme:"academy", prev:"disabled",home:"disabled"}</t>
   </si>
   <si>
@@ -402,9 +360,6 @@
     <t>{slidesPath}academy/007</t>
   </si>
   <si>
-    <t>l0,t-600</t>
-  </si>
-  <si>
     <t>{slidesPath}academy/001p</t>
   </si>
   <si>
@@ -432,27 +387,6 @@
     <t>{theme:"academy",link1:{url:"https://forms.office.com/r/5zASR1k4NT",target:"_blank"}}</t>
   </si>
   <si>
-    <t>{slidesPath}academy/002p1</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/003p1</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/002p2</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/003p2</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/003p3</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/003p4</t>
-  </si>
-  <si>
-    <t>{slidesPath}academy/003p5</t>
-  </si>
-  <si>
     <t>virus2</t>
   </si>
   <si>
@@ -546,12 +480,6 @@
     <t>{slidesPath}rinza/001p1</t>
   </si>
   <si>
-    <t>{slidesPath}rinza/001p2</t>
-  </si>
-  <si>
-    <t>{slidesPath}rinza/001p3</t>
-  </si>
-  <si>
     <t>{slidesPath}rinza/002p1</t>
   </si>
   <si>
@@ -717,75 +645,9 @@
     <t>{slidesPath}doctormom/017p1</t>
   </si>
   <si>
-    <t>{slidesPath}doctormom/001p2</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/001p3</t>
-  </si>
-  <si>
-    <t>{slidesPath}doctormom/001p4</t>
-  </si>
-  <si>
     <t>tyzine</t>
   </si>
   <si>
-    <t>{slidesPath}tyzine/001</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/002</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/003</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/004</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/005</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/006</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/007</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/009</t>
-  </si>
-  <si>
-    <t>tyzine2</t>
-  </si>
-  <si>
-    <t>tyzine3</t>
-  </si>
-  <si>
-    <t>tyzine4</t>
-  </si>
-  <si>
-    <t>tyzine5</t>
-  </si>
-  <si>
-    <t>tyzine6</t>
-  </si>
-  <si>
-    <t>tyzine7</t>
-  </si>
-  <si>
-    <t>tyzine9</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/002p1</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/005p1</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/007p1</t>
-  </si>
-  <si>
-    <t>{slidesPath}tyzine/009p1</t>
-  </si>
-  <si>
     <t>Virus</t>
   </si>
   <si>
@@ -801,9 +663,6 @@
     <t>{theme:"dark",home:"disabled"}</t>
   </si>
   <si>
-    <t>{theme:"dark", next:"disabled",home:"disabled"}</t>
-  </si>
-  <si>
     <t>JNJ Университеты</t>
   </si>
   <si>
@@ -816,7 +675,115 @@
     <t>Доктор Мом&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
   <si>
-    <t>Тизин&lt;sup&gt;®&lt;/sup&gt; Пантенол</t>
+    <t>{theme:"dark", next:"disabled"}</t>
+  </si>
+  <si>
+    <t>l0,t-356</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/kDM3T4xHid",target:"_blank"}}</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/ZcZzmGGM7y",target:"_blank"}}</t>
+  </si>
+  <si>
+    <t>hexoral</t>
+  </si>
+  <si>
+    <t>Hexoral</t>
+  </si>
+  <si>
+    <t>hexoral2</t>
+  </si>
+  <si>
+    <t>hexoral3</t>
+  </si>
+  <si>
+    <t>hexoral4</t>
+  </si>
+  <si>
+    <t>hexoral5</t>
+  </si>
+  <si>
+    <t>hexoral6</t>
+  </si>
+  <si>
+    <t>hexoral7</t>
+  </si>
+  <si>
+    <t>hexoral8</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/003</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/005</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/006</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/007</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/008</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/003p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/006p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/001p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/005p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/007p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/008p1</t>
+  </si>
+  <si>
+    <t>hexoral9</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/009</t>
+  </si>
+  <si>
+    <t>hexoral10</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/010</t>
+  </si>
+  <si>
+    <t>hexoral11</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/011</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/009p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/010p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}hexoral/011p1</t>
+  </si>
+  <si>
+    <t>Гексорал&lt;sup&gt;®&lt;/sup&gt;</t>
   </si>
 </sst>
 </file>
@@ -970,7 +937,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1010,13 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1330,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1342,17 +1303,17 @@
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="8" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1368,1129 +1329,1186 @@
       <c r="E1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G8" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="H8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="F9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="H9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="F24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="B34" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="B35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="B36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="B37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="B38" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="B39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="D40" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="F41" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="13" t="s">
+      <c r="D42" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K25" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="F43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="I36" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="B44" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="B45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="J38" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="B46" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I39" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B47" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="I41" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>106</v>
+      <c r="F50" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2501,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2523,10 +2541,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>6</v>
@@ -2535,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2546,58 +2564,66 @@
         <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>254</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2608,10 +2634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2647,41 +2673,41 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="24">
+      <c r="C2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="22">
         <v>1</v>
       </c>
     </row>
@@ -2701,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -2711,12 +2737,12 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2724,12 +2750,12 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2737,37 +2763,66 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="8">
+        <v>61</v>
+      </c>
+      <c r="I7" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27">
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="8">
+        <v>61</v>
+      </c>
+      <c r="I8" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="27">
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="8">
         <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2775,22 +2830,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
       <c r="F10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="8">
-        <v>100</v>
-      </c>
-      <c r="I10" s="8">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2798,78 +2850,15 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="8">
-        <v>100</v>
-      </c>
-      <c r="I11" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="8">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="E11" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2883,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2911,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>10</v>
@@ -2928,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2939,10 +2928,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2950,10 +2939,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2961,10 +2950,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2972,10 +2961,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCF70F-6114-4B46-A39A-F84229472AC3}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3001,63 +2990,63 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8">
-        <v>2160</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8">
-        <v>1350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8">
-        <v>2160</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8">
-        <v>1620</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -3065,7 +3054,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -3073,7 +3062,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -3081,23 +3070,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B13" s="8">
         <v>0</v>
@@ -3105,7 +3094,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -3113,15 +3102,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="20">
+        <v>88</v>
+      </c>
+      <c r="B15" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B16" s="8">
         <v>0.7</v>
@@ -3129,10 +3118,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3142,185 +3131,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07CFF63-8A61-4EC8-9286-C73858C2C756}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560EBD8E-A245-488A-9C11-9F9F721470B5}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC0A1BD-4758-4764-BE1D-354A27BA823A}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="135.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -3347,13 +3157,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,59 +3171,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3421,76 +3231,76 @@
     </row>
     <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E625963-6E8B-45AA-A255-FF611C1B81C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B0B91-B4B3-4C70-BB96-6C2E5800AB85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
-    <sheet name="templates" sheetId="9" r:id="rId2"/>
+    <sheet name="menus" sheetId="10" r:id="rId2"/>
     <sheet name="layers" sheetId="8" r:id="rId3"/>
-    <sheet name="menus" sheetId="10" r:id="rId4"/>
+    <sheet name="templates" sheetId="9" r:id="rId4"/>
     <sheet name="settings" sheetId="6" r:id="rId5"/>
     <sheet name="&lt;Справочник&gt;" sheetId="5" r:id="rId6"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>popup1</t>
   </si>
   <si>
-    <t>popup2</t>
-  </si>
-  <si>
     <t>Источник контента</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>academyPlus</t>
   </si>
   <si>
-    <t>extra</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>{templatePath}exitpopup</t>
   </si>
   <si>
-    <t>{theme:"academy", prev:"disabled",home:"disabled"}</t>
-  </si>
-  <si>
     <t>virus</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>academy7</t>
   </si>
   <si>
-    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/5zASR1k4NT",target:"_blank"}}</t>
-  </si>
-  <si>
     <t>virus2</t>
   </si>
   <si>
@@ -660,9 +648,6 @@
     <t>Tyzine</t>
   </si>
   <si>
-    <t>{theme:"dark",home:"disabled"}</t>
-  </si>
-  <si>
     <t>JNJ Университеты</t>
   </si>
   <si>
@@ -681,12 +666,6 @@
     <t>l0,t-356</t>
   </si>
   <si>
-    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/kDM3T4xHid",target:"_blank"}}</t>
-  </si>
-  <si>
-    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/ZcZzmGGM7y",target:"_blank"}}</t>
-  </si>
-  <si>
     <t>hexoral</t>
   </si>
   <si>
@@ -784,6 +763,60 @@
   </si>
   <si>
     <t>Гексорал&lt;sup&gt;®&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/5zASR1k4NT",target:"_blank"},menu:"academy"}</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/ZcZzmGGM7y",target:"_blank"},menu:"academy"}</t>
+  </si>
+  <si>
+    <t>{theme:"academy",link1:{url:"https://forms.office.com/r/kDM3T4xHid",target:"_blank"},menu:"academy"}</t>
+  </si>
+  <si>
+    <t>bottommenu</t>
+  </si>
+  <si>
+    <t>{templatePath}bottommenu</t>
+  </si>
+  <si>
+    <t>l0,t356</t>
+  </si>
+  <si>
+    <t>popup</t>
+  </si>
+  <si>
+    <t>{theme:"academy",menu:"academy"}</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>dev2</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/001</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/002</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/001p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/002p1</t>
+  </si>
+  <si>
+    <t>dev3</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/003p1</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/003</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1302,8 +1335,8 @@
     <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="21.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
@@ -1324,22 +1357,22 @@
         <v>9</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>13</v>
@@ -1351,1164 +1384,1221 @@
         <v>2</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>111</v>
+      <c r="A2" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>112</v>
+      <c r="A3" s="23" t="s">
+        <v>255</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>111</v>
+        <v>256</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>113</v>
+      <c r="A4" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>111</v>
+        <v>257</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>111</v>
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="H7" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>100</v>
+      <c r="A9" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>119</v>
+      <c r="A10" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>120</v>
+      <c r="A11" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>136</v>
+        <v>98</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>125</v>
+      <c r="A16" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>126</v>
+      <c r="A17" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>125</v>
+        <v>134</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>127</v>
+      <c r="A18" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>125</v>
+        <v>145</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>161</v>
+      <c r="A25" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>162</v>
+      <c r="A26" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>163</v>
+      <c r="A27" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>219</v>
+      <c r="A40" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>124</v>
+        <v>198</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>215</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>221</v>
+      <c r="A41" s="20" t="s">
+        <v>170</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>219</v>
+        <v>185</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>222</v>
+      <c r="A42" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>219</v>
+        <v>200</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>219</v>
+      <c r="F43" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2518,112 +2608,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="27" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="2" width="14.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="28.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="8"/>
+    <col min="17" max="17" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D10" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>220</v>
+      <c r="D13" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2637,7 +2783,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2673,28 +2819,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2705,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="22">
         <v>1</v>
@@ -2726,10 +2872,12 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2737,13 +2885,20 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25">
+      <c r="B5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="8">
         <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2751,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>16</v>
+        <v>251</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -2764,16 +2919,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="8">
         <v>61</v>
@@ -2787,16 +2942,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="8">
         <v>61</v>
@@ -2810,16 +2965,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I9" s="8">
         <v>61</v>
@@ -2830,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -2842,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2850,10 +3005,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -2869,102 +3024,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F02F3F-96B3-48BA-B13D-EB6706FA6D0F}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="18.5703125" style="8" customWidth="1"/>
+    <col min="2" max="5" width="27" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +3143,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2990,31 +3155,31 @@
   <sheetData>
     <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8">
         <v>1280</v>
@@ -3022,7 +3187,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8">
         <v>800</v>
@@ -3030,7 +3195,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8">
         <v>1280</v>
@@ -3038,7 +3203,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8">
         <v>960</v>
@@ -3046,7 +3211,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -3054,7 +3219,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
@@ -3062,7 +3227,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="8">
         <v>18</v>
@@ -3070,23 +3235,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8">
         <v>0</v>
@@ -3094,15 +3259,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="19">
         <v>0</v>
@@ -3110,7 +3275,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8">
         <v>0.7</v>
@@ -3118,10 +3283,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3157,13 +3322,13 @@
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,59 +3336,59 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3231,76 +3396,76 @@
     </row>
     <row r="16" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3365,7 +3530,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{4D6503AA-0467-49DD-B41C-1AA5E6B69180}">
-            <xm:f>EXACT('C:\ConverterCloud\[clients.xlsx]clients'!#REF!,#REF!)</xm:f>
+            <xm:f>EXACT('\ConverterCloud\[clients.xlsx]clients'!#REF!,#REF!)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B0B91-B4B3-4C70-BB96-6C2E5800AB85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F26CF-F3A9-4AB9-AC7A-613550A72BC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -817,6 +817,24 @@
   </si>
   <si>
     <t>{slidesPath}dev/003</t>
+  </si>
+  <si>
+    <t>dev1</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/004</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/004p1</t>
+  </si>
+  <si>
+    <t>{theme:"dark",buttons:"dev"}</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I2" sqref="I2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1392,21 +1410,24 @@
         <v>254</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>121</v>
@@ -1417,13 +1438,16 @@
       <c r="D3" s="8" t="s">
         <v>258</v>
       </c>
+      <c r="H3" s="23" t="s">
+        <v>254</v>
+      </c>
       <c r="I3" s="8" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>121</v>
@@ -1438,63 +1462,60 @@
         <v>254</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>108</v>
+      <c r="A5" s="23" t="s">
+        <v>260</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>97</v>
+        <v>262</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>254</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -1506,35 +1527,35 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>108</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="24" t="s">
@@ -1546,35 +1567,35 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>108</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>108</v>
       </c>
       <c r="H11" s="24" t="s">
@@ -1585,37 +1606,40 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>97</v>
+      <c r="A12" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>97</v>
+      <c r="H12" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>97</v>
@@ -1626,13 +1650,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>97</v>
@@ -1643,13 +1667,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>97</v>
@@ -1660,13 +1684,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>97</v>
@@ -1677,13 +1701,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>97</v>
@@ -1694,16 +1718,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>97</v>
@@ -1713,23 +1734,20 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>121</v>
+      <c r="A19" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>157</v>
+        <v>135</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>94</v>
@@ -1737,25 +1755,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>121</v>
+        <v>145</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>94</v>
@@ -1763,16 +1778,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>121</v>
@@ -1789,19 +1804,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>121</v>
@@ -1818,21 +1830,24 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>121</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -1844,21 +1859,21 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>121</v>
       </c>
       <c r="H24" s="23" t="s">
@@ -1870,19 +1885,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>121</v>
+        <v>152</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>121</v>
@@ -1896,16 +1911,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>121</v>
@@ -1922,51 +1937,51 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="F28" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>120</v>
+      <c r="G28" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>94</v>
@@ -1974,25 +1989,25 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>157</v>
+        <v>187</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>94</v>
@@ -2000,16 +2015,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>157</v>
@@ -2026,16 +2041,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>157</v>
@@ -2052,16 +2067,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="20" t="s">
         <v>157</v>
@@ -2078,16 +2093,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>157</v>
@@ -2104,18 +2119,21 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>157</v>
       </c>
       <c r="H34" s="20" t="s">
@@ -2127,18 +2145,18 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>157</v>
       </c>
       <c r="H35" s="20" t="s">
@@ -2150,19 +2168,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>157</v>
@@ -2176,16 +2191,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>157</v>
@@ -2202,13 +2217,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>157</v>
@@ -2225,18 +2243,18 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F39" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>157</v>
       </c>
       <c r="H39" s="20" t="s">
@@ -2248,18 +2266,18 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>157</v>
       </c>
       <c r="H40" s="20" t="s">
@@ -2271,19 +2289,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>157</v>
@@ -2297,91 +2312,91 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="B43" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>231</v>
-      </c>
       <c r="F43" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>120</v>
+      <c r="G43" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>212</v>
+        <v>221</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>94</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>212</v>
@@ -2398,13 +2413,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>212</v>
@@ -2421,16 +2439,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>212</v>
@@ -2447,16 +2462,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>212</v>
@@ -2473,16 +2488,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>212</v>
@@ -2499,16 +2514,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>212</v>
@@ -2525,16 +2540,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>212</v>
@@ -2551,16 +2566,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>212</v>
@@ -2577,27 +2592,53 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B54" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I53" s="8" t="s">
+      <c r="F54" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2609,32 +2650,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADBD7ED-DDEE-48B2-ACB4-DB3359AEA9DF}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="28.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="8"/>
-    <col min="17" max="17" width="35" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="13.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="8"/>
+    <col min="16" max="16" width="35" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2649,9 +2690,8 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2673,7 +2713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2684,7 +2724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -2695,7 +2735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>108</v>
       </c>
@@ -2717,7 +2757,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>108</v>
       </c>
@@ -2728,7 +2768,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>108</v>
       </c>
@@ -2739,7 +2779,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
@@ -2750,7 +2790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>108</v>
       </c>
@@ -2761,7 +2801,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>108</v>
       </c>
@@ -2770,6 +2810,28 @@
       </c>
       <c r="D13" s="24" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2845,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDE7EE-2824-41F0-8584-EFA10285D78E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE73CC4-2E9C-4431-A8B2-C802C60B7FA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="279">
   <si>
     <t>id</t>
   </si>
@@ -849,7 +849,22 @@
     <t>{templatePath}popupbutton</t>
   </si>
   <si>
-    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu"}</t>
+    <t>search</t>
+  </si>
+  <si>
+    <t>extrabuttons</t>
+  </si>
+  <si>
+    <t>{templatePath}extrabuttons</t>
+  </si>
+  <si>
+    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons"}</t>
+  </si>
+  <si>
+    <t>l508,t356</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/004p2</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1368,18 +1383,18 @@
     <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="90.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" style="8" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="5" width="27.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="90.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1393,34 +1408,37 @@
         <v>250</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>253</v>
       </c>
@@ -1433,14 +1451,17 @@
       <c r="D2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>262</v>
       </c>
@@ -1453,14 +1474,14 @@
       <c r="D3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>254</v>
       </c>
@@ -1473,14 +1494,14 @@
       <c r="D4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>259</v>
       </c>
@@ -1493,14 +1514,14 @@
       <c r="D5" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>107</v>
       </c>
@@ -1510,17 +1531,17 @@
       <c r="C6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>108</v>
       </c>
@@ -1530,17 +1551,17 @@
       <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="G7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -1550,17 +1571,17 @@
       <c r="C8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="H8" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>110</v>
       </c>
@@ -1570,17 +1591,17 @@
       <c r="C9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>111</v>
       </c>
@@ -1590,17 +1611,17 @@
       <c r="C10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="H10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>112</v>
       </c>
@@ -1610,17 +1631,17 @@
       <c r="C11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="I11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>113</v>
       </c>
@@ -1630,17 +1651,17 @@
       <c r="C12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="H12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>96</v>
       </c>
@@ -1650,20 +1671,20 @@
       <c r="C13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="G13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>114</v>
       </c>
@@ -1673,14 +1694,14 @@
       <c r="C14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>115</v>
       </c>
@@ -1690,14 +1711,14 @@
       <c r="C15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>116</v>
       </c>
@@ -1707,14 +1728,14 @@
       <c r="C16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
@@ -1724,14 +1745,14 @@
       <c r="C17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1741,14 +1762,14 @@
       <c r="C18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>119</v>
       </c>
@@ -1758,17 +1779,17 @@
       <c r="C19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -1781,17 +1802,17 @@
       <c r="D20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -1804,20 +1825,20 @@
       <c r="D21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="G21" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H21" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -1830,20 +1851,20 @@
       <c r="D22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="G22" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>123</v>
       </c>
@@ -1856,11 +1877,8 @@
       <c r="D23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>120</v>
@@ -1868,11 +1886,14 @@
       <c r="H23" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>124</v>
       </c>
@@ -1885,20 +1906,20 @@
       <c r="D24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="I24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>125</v>
       </c>
@@ -1911,20 +1932,20 @@
       <c r="D25" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="H25" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>126</v>
       </c>
@@ -1937,20 +1958,20 @@
       <c r="D26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="G26" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>127</v>
       </c>
@@ -1963,20 +1984,20 @@
       <c r="D27" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="G27" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -1989,20 +2010,20 @@
       <c r="D28" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="G28" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H28" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>156</v>
       </c>
@@ -2015,20 +2036,20 @@
       <c r="D29" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>157</v>
       </c>
@@ -2041,20 +2062,20 @@
       <c r="D30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G30" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>158</v>
       </c>
@@ -2067,20 +2088,20 @@
       <c r="D31" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G31" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>159</v>
       </c>
@@ -2093,20 +2114,20 @@
       <c r="D32" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G32" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>160</v>
       </c>
@@ -2119,20 +2140,20 @@
       <c r="D33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G33" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>161</v>
       </c>
@@ -2145,20 +2166,20 @@
       <c r="D34" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G34" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>162</v>
       </c>
@@ -2171,17 +2192,17 @@
       <c r="D35" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>163</v>
       </c>
@@ -2194,17 +2215,17 @@
       <c r="D36" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H36" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>164</v>
       </c>
@@ -2217,20 +2238,20 @@
       <c r="D37" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G37" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>165</v>
       </c>
@@ -2243,20 +2264,20 @@
       <c r="D38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G38" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>166</v>
       </c>
@@ -2266,20 +2287,20 @@
       <c r="C39" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G39" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>167</v>
       </c>
@@ -2292,17 +2313,17 @@
       <c r="D40" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>168</v>
       </c>
@@ -2315,17 +2336,17 @@
       <c r="D41" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H41" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>169</v>
       </c>
@@ -2338,20 +2359,20 @@
       <c r="D42" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F42" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G42" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>170</v>
       </c>
@@ -2364,20 +2385,20 @@
       <c r="D43" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="G43" s="20" t="s">
         <v>156</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>211</v>
       </c>
@@ -2390,20 +2411,20 @@
       <c r="D44" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="F44" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H44" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="J44" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>213</v>
       </c>
@@ -2413,20 +2434,20 @@
       <c r="C45" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G45" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>214</v>
       </c>
@@ -2439,20 +2460,20 @@
       <c r="D46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F46" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G46" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>215</v>
       </c>
@@ -2462,20 +2483,20 @@
       <c r="C47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G47" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I47" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>216</v>
       </c>
@@ -2488,20 +2509,20 @@
       <c r="D48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G48" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>217</v>
       </c>
@@ -2514,20 +2535,20 @@
       <c r="D49" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G49" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I49" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>218</v>
       </c>
@@ -2540,20 +2561,20 @@
       <c r="D50" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G50" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>219</v>
       </c>
@@ -2566,20 +2587,20 @@
       <c r="D51" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G51" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I51" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>234</v>
       </c>
@@ -2592,20 +2613,20 @@
       <c r="D52" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G52" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>236</v>
       </c>
@@ -2618,20 +2639,20 @@
       <c r="D53" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F53" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G53" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>238</v>
       </c>
@@ -2644,16 +2665,16 @@
       <c r="D54" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="G54" s="13" t="s">
         <v>211</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J54" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2668,7 +2689,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2900,10 +2921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3051,59 +3072,52 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25">
+      <c r="B7" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H7" s="8">
+        <v>61</v>
+      </c>
+      <c r="I7" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25">
         <v>1</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="8">
-        <v>61</v>
-      </c>
-      <c r="I8" s="8">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
         <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="8">
-        <v>61</v>
-      </c>
-      <c r="I9" s="8">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3111,16 +3125,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>210</v>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="8">
+        <v>61</v>
       </c>
       <c r="I10" s="8">
         <v>61</v>
@@ -3131,19 +3148,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="H11" s="8">
+        <v>61</v>
+      </c>
+      <c r="I11" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3151,15 +3171,55 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="G12" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
     </row>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE73CC4-2E9C-4431-A8B2-C802C60B7FA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80171975-38BF-4F32-BD8A-B3993B0F9D50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sequence" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="281">
   <si>
     <t>id</t>
   </si>
@@ -858,13 +858,19 @@
     <t>{templatePath}extrabuttons</t>
   </si>
   <si>
-    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons"}</t>
-  </si>
-  <si>
     <t>l508,t356</t>
   </si>
   <si>
     <t>{slidesPath}dev/004p2</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons", buttons:"info"}</t>
+  </si>
+  <si>
+    <t>{slidesPath}dev/004p3</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1383,18 +1389,18 @@
     <col min="1" max="1" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="90.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="6" width="27.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="90.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1411,34 +1417,37 @@
         <v>273</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>253</v>
       </c>
@@ -1452,16 +1461,19 @@
         <v>264</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>262</v>
       </c>
@@ -1474,14 +1486,14 @@
       <c r="D3" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>254</v>
       </c>
@@ -1494,14 +1506,14 @@
       <c r="D4" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>259</v>
       </c>
@@ -1514,14 +1526,14 @@
       <c r="D5" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>107</v>
       </c>
@@ -1531,17 +1543,17 @@
       <c r="C6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>108</v>
       </c>
@@ -1551,17 +1563,17 @@
       <c r="C7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="J7" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -1571,17 +1583,17 @@
       <c r="C8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="I8" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>110</v>
       </c>
@@ -1591,17 +1603,17 @@
       <c r="C9" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>111</v>
       </c>
@@ -1611,17 +1623,17 @@
       <c r="C10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="I10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>112</v>
       </c>
@@ -1631,17 +1643,17 @@
       <c r="C11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="J11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>113</v>
       </c>
@@ -1651,17 +1663,17 @@
       <c r="C12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="I12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>96</v>
       </c>
@@ -1671,20 +1683,20 @@
       <c r="C13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="H13" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="I13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>114</v>
       </c>
@@ -1694,14 +1706,14 @@
       <c r="C14" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>115</v>
       </c>
@@ -1711,14 +1723,14 @@
       <c r="C15" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K15" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>116</v>
       </c>
@@ -1728,14 +1740,14 @@
       <c r="C16" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>117</v>
       </c>
@@ -1745,14 +1757,14 @@
       <c r="C17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>118</v>
       </c>
@@ -1762,14 +1774,14 @@
       <c r="C18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>119</v>
       </c>
@@ -1779,17 +1791,17 @@
       <c r="C19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
         <v>120</v>
       </c>
@@ -1802,17 +1814,17 @@
       <c r="D20" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>121</v>
       </c>
@@ -1825,20 +1837,20 @@
       <c r="D21" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="H21" s="23" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
         <v>122</v>
       </c>
@@ -1851,20 +1863,20 @@
       <c r="D22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="H22" s="23" t="s">
         <v>120</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
         <v>123</v>
       </c>
@@ -1877,11 +1889,8 @@
       <c r="D23" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>120</v>
@@ -1889,11 +1898,14 @@
       <c r="I23" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>124</v>
       </c>
@@ -1906,20 +1918,20 @@
       <c r="D24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="J24" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
         <v>125</v>
       </c>
@@ -1932,20 +1944,20 @@
       <c r="D25" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
         <v>126</v>
       </c>
@@ -1958,20 +1970,20 @@
       <c r="D26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="H26" s="23" t="s">
         <v>120</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>127</v>
       </c>
@@ -1984,20 +1996,20 @@
       <c r="D27" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="H27" s="23" t="s">
         <v>120</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
         <v>128</v>
       </c>
@@ -2010,20 +2022,20 @@
       <c r="D28" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>120</v>
-      </c>
       <c r="H28" s="23" t="s">
         <v>120</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>156</v>
       </c>
@@ -2036,20 +2048,20 @@
       <c r="D29" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>157</v>
       </c>
@@ -2062,20 +2074,20 @@
       <c r="D30" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H30" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I30" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>158</v>
       </c>
@@ -2088,20 +2100,20 @@
       <c r="D31" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H31" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I31" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>159</v>
       </c>
@@ -2114,20 +2126,20 @@
       <c r="D32" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H32" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>160</v>
       </c>
@@ -2140,20 +2152,20 @@
       <c r="D33" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H33" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>161</v>
       </c>
@@ -2166,20 +2178,20 @@
       <c r="D34" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H34" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I34" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>162</v>
       </c>
@@ -2192,17 +2204,17 @@
       <c r="D35" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>163</v>
       </c>
@@ -2215,17 +2227,17 @@
       <c r="D36" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="I36" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J36" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>164</v>
       </c>
@@ -2238,20 +2250,20 @@
       <c r="D37" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H37" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I37" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>165</v>
       </c>
@@ -2264,20 +2276,20 @@
       <c r="D38" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H38" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I38" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J38" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>166</v>
       </c>
@@ -2287,20 +2299,20 @@
       <c r="C39" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H39" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I39" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>167</v>
       </c>
@@ -2313,17 +2325,17 @@
       <c r="D40" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>168</v>
       </c>
@@ -2336,17 +2348,17 @@
       <c r="D41" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="I41" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J41" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>169</v>
       </c>
@@ -2359,20 +2371,20 @@
       <c r="D42" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G42" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H42" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I42" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J42" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>170</v>
       </c>
@@ -2385,20 +2397,20 @@
       <c r="D43" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>156</v>
-      </c>
       <c r="H43" s="20" t="s">
         <v>156</v>
       </c>
       <c r="I43" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J43" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>211</v>
       </c>
@@ -2411,20 +2423,20 @@
       <c r="D44" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>213</v>
       </c>
@@ -2434,20 +2446,20 @@
       <c r="C45" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G45" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H45" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J45" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>214</v>
       </c>
@@ -2460,20 +2472,20 @@
       <c r="D46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G46" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H46" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J46" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>215</v>
       </c>
@@ -2483,20 +2495,20 @@
       <c r="C47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H47" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I47" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J47" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>216</v>
       </c>
@@ -2509,20 +2521,20 @@
       <c r="D48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G48" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H48" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J48" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>217</v>
       </c>
@@ -2535,20 +2547,20 @@
       <c r="D49" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H49" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>218</v>
       </c>
@@ -2561,20 +2573,20 @@
       <c r="D50" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H50" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J50" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>219</v>
       </c>
@@ -2587,20 +2599,20 @@
       <c r="D51" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H51" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J51" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>234</v>
       </c>
@@ -2613,20 +2625,20 @@
       <c r="D52" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H52" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J52" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>236</v>
       </c>
@@ -2639,20 +2651,20 @@
       <c r="D53" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G53" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H53" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J53" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>238</v>
       </c>
@@ -2665,16 +2677,16 @@
       <c r="D54" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G54" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="H54" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K54" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2921,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E4B767-F738-4DC0-AA9C-8AED7BB104BD}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H7" s="8">
         <v>61</v>
@@ -3124,23 +3136,13 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
         <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="8">
-        <v>61</v>
-      </c>
-      <c r="I10" s="8">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3148,16 +3150,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H11" s="8">
         <v>61</v>
@@ -3171,16 +3173,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>210</v>
+      <c r="F12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="8">
+        <v>61</v>
       </c>
       <c r="I12" s="8">
         <v>61</v>
@@ -3191,19 +3196,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
+      <c r="G13" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="8">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3211,15 +3216,35 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
         <v>1</v>
       </c>
     </row>

--- a/public/presentation/content.xlsx
+++ b/public/presentation/content.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80171975-38BF-4F32-BD8A-B3993B0F9D50}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6DD2C-CD02-4D47-9D6F-F8718FFF8BD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="21690" windowHeight="240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -867,10 +867,13 @@
     <t>info</t>
   </si>
   <si>
-    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons", buttons:"info"}</t>
-  </si>
-  <si>
     <t>{slidesPath}dev/004p3</t>
+  </si>
+  <si>
+    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons"}</t>
+  </si>
+  <si>
+    <t>{theme:"dark",buttons:"dev",menu:"academy",show:"bottommenu,extrabuttons", search:"disabled"}</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1384,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1463,14 +1466,11 @@
       <c r="E2" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="H2" s="8" t="s">
         <v>252</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1486,11 +1486,14 @@
       <c r="D3" s="8" t="s">
         <v>257</v>
       </c>
+      <c r="F3" s="8" t="s">
+        <v>279</v>
+      </c>
       <c r="J3" s="23" t="s">
         <v>253</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
